--- a/trend_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
+++ b/trend_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.893709643025188</v>
+        <v>0.106290356974812</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.963274072570005</v>
+        <v>0.036725927429995</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.643990578765398</v>
+        <v>0.356009421234602</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.948201526032217</v>
+        <v>0.051798473967783</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.0238243044420474</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.589147286821705</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.38</v>
+        <v>39</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0059956875133966</v>
+        <v>1.41878251989802</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0389522627991902</v>
+        <v>0.176043989277848</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0476467192122255</v>
+        <v>2.82115733039592</v>
       </c>
       <c r="N30" t="n">
-        <v>1.57781250352542</v>
+        <v>3.63790389717442</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.889664319040077</v>
+        <v>0.0198523010367559</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0326797385620915</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J31" t="n">
-        <v>96</v>
+        <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>2.64587865257043</v>
+        <v>-0.0330775944447762</v>
       </c>
       <c r="L31" t="n">
-        <v>-4.8390400070307</v>
+        <v>-0.06616298377835871</v>
       </c>
       <c r="M31" t="n">
-        <v>4.9537214594791</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>2.75612359642753</v>
+        <v>-2.06734965279852</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.889664319040077</v>
+        <v>0.015156181223663</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.795454545454545</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.92</v>
+        <v>10.185</v>
       </c>
       <c r="K32" t="n">
-        <v>0.160884301392683</v>
+        <v>-0.0342622630447528</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0755349887838755</v>
+        <v>-0.0615370493548641</v>
       </c>
       <c r="M32" t="n">
-        <v>0.323226243488997</v>
+        <v>-0.0082282404737183</v>
       </c>
       <c r="N32" t="n">
-        <v>4.10419136205823</v>
+        <v>-0.336399244425654</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.053702318165127</v>
+        <v>0.731668983174681</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="H33" t="n">
+        <v>0.0842696629213483</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.385</v>
+        <v>0.0065</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0117618594182825</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0269589179509609</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0018527666760197</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.05502842033313</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3467,22 +3483,22 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8</v>
+        <v>0.752808988764045</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97</v>
+        <v>247.5</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.48110867758945</v>
+        <v>-6.40967364884104</v>
       </c>
       <c r="M34" t="n">
-        <v>0.884770016821791</v>
+        <v>6.76491408221109</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3523,7 +3539,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.141565435331173</v>
+        <v>0.0031130708396</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.767441860465116</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.244186046511628</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4.03</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0739858898891967</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.192020004976717</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0311956205545248</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-1.83587816102225</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1253 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0002642979374916</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0001248291182501</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0002121080139372</v>
+      </c>
+      <c r="N36" t="n">
+        <v>4.16097060833903</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.942426210278273</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0754716981132075</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.893081761006289</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0061385139141434</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0129550183780449</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-1.32581294041974</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.95215649757715</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.546511627906977</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.425</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.009632122932612701</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0195811964902737</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.12972556138199</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.936156459127372</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0168539325842697</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.904494382022472</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4885</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0039881710646041</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.009817168328388101</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.51002784742647e-05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.816411681597581</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.704302210772152</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.668539325842697</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0018724367737525</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.008717183770883</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0045789356112302</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.246373259704285</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0004394398365659</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.314606741573034</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0005733908948194</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0002882794001578</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0008809234729623</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2.38912872841444</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0287899225111873</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.853932584269663</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.0361140470508012</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0066204561512341</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.07456940643631441</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1.74463995414499</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0059956875133966</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0389522627991902</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0476467192122255</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.57781250352542</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>96</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.64587865257043</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-4.8390400070307</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4.9537214594791</v>
+      </c>
+      <c r="N44" t="n">
+        <v>2.75612359642753</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.889664319040077</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.160884301392683</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0755349887838755</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.323226243488997</v>
+      </c>
+      <c r="N45" t="n">
+        <v>4.10419136205823</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0117618594182825</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0269589179509609</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0018527666760197</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-3.05502842033313</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>97</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.48110867758945</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.884770016821791</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.141565435331173</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0739858898891967</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.192020004976717</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.0311956205545248</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-1.83587816102225</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.460385453024782</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.7333333333333329</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>96</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.695076308227987</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.664797366356525</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
+++ b/trend_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.07759854477739921</v>
+        <v>0.0218567330581458</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.815789473684211</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.5</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>8.01646090534979</v>
+        <v>11.173641897704</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.916510928840687</v>
+        <v>2.13234995352332</v>
       </c>
       <c r="M2" t="n">
-        <v>17.957325287432</v>
+        <v>22.1585853535859</v>
       </c>
       <c r="N2" t="n">
-        <v>17.6185953963732</v>
+        <v>18.6227364961733</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.783309379818186</v>
+        <v>0.648891210600189</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.679245283018868</v>
+        <v>0.627450980392157</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>1.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0534407208772771</v>
+        <v>0.0127264808362369</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.07528620080680661</v>
+        <v>-0.13358940103593</v>
       </c>
       <c r="M3" t="n">
-        <v>0.197896442014348</v>
+        <v>0.152837086072366</v>
       </c>
       <c r="N3" t="n">
-        <v>3.34004505482982</v>
+        <v>0.795405052264806</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -747,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.106290356974812</v>
+        <v>0.01669712809119</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.844827586206897</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.225</v>
+        <v>10.32</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0602060439560436</v>
+        <v>-0.193916632506661</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.207333444741883</v>
+        <v>-0.344209253806192</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0081372235609485</v>
+        <v>-0.0447769166314257</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.588812165829277</v>
+        <v>-1.87903713669245</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,18 +838,18 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.22964571766116</v>
+        <v>0.161252013457819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.206896551724138</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H5" t="n">
         <v>0.206896551724138</v>
@@ -858,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.0002496582365003</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0006829655946148</v>
+        <v>0.0009747429090191</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.56654623571917</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.363576668225981</v>
+        <v>0.618645395913537</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.810344827586207</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>272</v>
       </c>
       <c r="K6" t="n">
-        <v>9.154135338345871</v>
+        <v>-5.40310650887574</v>
       </c>
       <c r="L6" t="n">
-        <v>-37.0171263363131</v>
+        <v>-47.3228548652338</v>
       </c>
       <c r="M6" t="n">
-        <v>67.4736741433092</v>
+        <v>53.9405053312284</v>
       </c>
       <c r="N6" t="n">
-        <v>3.36549093321539</v>
+        <v>-1.98643621649843</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.286148299179127</v>
+        <v>0.138607807027793</v>
       </c>
       <c r="G7" t="n">
-        <v>0.648148148148148</v>
+        <v>0.6</v>
       </c>
       <c r="H7" t="n">
-        <v>0.37037037037037</v>
+        <v>0.418181818181818</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.368886736658572</v>
+        <v>0.993321013274414</v>
       </c>
       <c r="G8" t="n">
-        <v>0.120689655172414</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H8" t="n">
-        <v>0.189655172413793</v>
+        <v>0.172413793103448</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004</v>
+        <v>0.0035</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0003549562682215</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0006956441415019</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0002790297937356</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-10.1416076634736</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0458553658490473</v>
+        <v>0.303883015703927</v>
       </c>
       <c r="G9" t="n">
         <v>0.0517241379310345</v>
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.371</v>
+        <v>0.3595</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0269201546860783</v>
+        <v>0.0059917976760082</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003770067099988</v>
+        <v>-0.0182604448772897</v>
       </c>
       <c r="M9" t="n">
-        <v>0.046719880169319</v>
+        <v>0.0276706520537957</v>
       </c>
       <c r="N9" t="n">
-        <v>7.25610638438767</v>
+        <v>1.66670310876445</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.036725927429995</v>
+        <v>0.005532776056141</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.912280701754386</v>
+        <v>0.859649122807018</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1316,16 +1316,16 @@
         <v>7.42</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0578426047838491</v>
+        <v>-0.0702967573157182</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.110983642112455</v>
+        <v>-0.126001120690433</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.008638399940361601</v>
+        <v>-0.0283837266127927</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.77954992970147</v>
+        <v>-0.9473956511552309</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0333946729728202</v>
+        <v>0.356952069103736</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.931034482758621</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.411</v>
+        <v>0.397</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0273316326530613</v>
+        <v>0.0078760107816711</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0018726094372671</v>
+        <v>-0.0168039157986438</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0512500030484662</v>
+        <v>0.0315390244694637</v>
       </c>
       <c r="N11" t="n">
-        <v>6.650032275684</v>
+        <v>1.98388180898518</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1475,35 +1475,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5</v>
+        <v>0.0162620906326638</v>
       </c>
       <c r="G12" t="n">
-        <v>0.189655172413793</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.413793103448276</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>0.66</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0409243697478991</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.665958409559271</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="M12" t="n">
-        <v>0.687483589489681</v>
+        <v>0.0802368386955699</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>6.20066208301502</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0232697904235028</v>
+        <v>0.279562177655435</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.810344827586207</v>
+        <v>0.620689655172414</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.725</v>
+        <v>0.026</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0374487354750513</v>
+        <v>0.0006776437847866</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0100655123245487</v>
+        <v>-0.0012830796252927</v>
       </c>
       <c r="M13" t="n">
-        <v>0.07888310154646359</v>
+        <v>0.0031814109428131</v>
       </c>
       <c r="N13" t="n">
-        <v>5.165342824145</v>
+        <v>2.60632224917939</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.204428575523474</v>
+        <v>0.5</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.637931034482759</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0275</v>
+        <v>1.93</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0008843825665859</v>
+        <v>0.0066895604395604</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0010865184025732</v>
+        <v>-0.107756223735241</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0033541626577914</v>
+        <v>0.685858530167895</v>
       </c>
       <c r="N14" t="n">
-        <v>3.21593660576711</v>
+        <v>0.346609349200023</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.558139752370802</v>
+        <v>0.0223354374874807</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.682926829268293</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.13</v>
+        <v>48.25</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0248469387755102</v>
+        <v>3.63794445375875</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.184749564470413</v>
+        <v>0.866102155944205</v>
       </c>
       <c r="M15" t="n">
-        <v>0.650345099580709</v>
+        <v>6.2096547453588</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.16652294720705</v>
+        <v>7.53978125131348</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,46 +1828,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.250125825283002</v>
+        <v>0.445822893720808</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.655172413793103</v>
+        <v>0.510416666666667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>1.4993842364532</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.29555659046373</v>
+        <v>-0.0708300599547759</v>
       </c>
       <c r="M16" t="n">
-        <v>4.03917226701187</v>
+        <v>0.0535406472180006</v>
       </c>
       <c r="N16" t="n">
-        <v>3.40769144648455</v>
+        <v>0</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.110774712417302</v>
+        <v>0.236631726083816</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0102040816326531</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.520408163265306</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.6</v>
+        <v>10.14</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0374231557377049</v>
+        <v>-0.0265878070973613</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.09585700257591601</v>
+        <v>-0.0614229745771226</v>
       </c>
       <c r="M17" t="n">
-        <v>0.008036391293565299</v>
+        <v>0.0195702338494276</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.33894723360656</v>
+        <v>-0.262207170585417</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,46 +2010,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0375644995806331</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.228813559322034</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.11864406779661</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.356009421234602</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.830508474576271</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.155</v>
+        <v>0.006</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.009986329460013399</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0435829214916509</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0258412112422734</v>
+        <v>0.0003347341690731</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0983390394880695</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.052177110158668</v>
+        <v>0.10202480017717</v>
       </c>
       <c r="G19" t="n">
-        <v>0.254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.110169491525424</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.006</v>
+        <v>261.5</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>11.3053571428571</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2.12322535683684</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0002779003058048</v>
+        <v>30.7093107399456</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>4.32327232996449</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.006835321587019</v>
+        <v>0.0171958826386376</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.690265486725664</v>
       </c>
       <c r="H20" t="n">
-        <v>0.728813559322034</v>
+        <v>0.31858407079646</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>255</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>18.5748959778086</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.79761904761905</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>36.5090799697383</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>7.28427293247396</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,29 +2294,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0172903712498919</v>
+        <v>0.962858835635254</v>
       </c>
       <c r="G21" t="n">
-        <v>0.743362831858407</v>
+        <v>0.135593220338983</v>
       </c>
       <c r="H21" t="n">
-        <v>0.265486725663717</v>
+        <v>0.152542372881356</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0002751753520995</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,46 +2374,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.626927185049488</v>
+        <v>0.902941765921472</v>
       </c>
       <c r="G22" t="n">
-        <v>0.110169491525424</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="H22" t="n">
-        <v>0.152542372881356</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.414</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>-0.0090891705069124</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001273124956839</v>
+        <v>-0.0200236634002865</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0012197585273469</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-2.19545181326388</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.306115298869307</v>
+        <v>0.0332319492263899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.101694915254237</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.889830508474576</v>
+        <v>0.646551724137931</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4115</v>
+        <v>7.46</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0007197044334975</v>
+        <v>-0.0169845003741066</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0068824645483766</v>
+        <v>-0.0315850916637842</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0070240384615384</v>
+        <v>-0.0017205743805214</v>
       </c>
       <c r="N23" t="n">
-        <v>0.174897796718721</v>
+        <v>-0.227674267749418</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.051798473967783</v>
+        <v>0.8716447029769639</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H24" t="n">
-        <v>0.612068965517241</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.48</v>
+        <v>0.455</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.0150747688398503</v>
+        <v>-0.0076684162482884</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0295034465941981</v>
+        <v>-0.0207244728023619</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.0032413795143267</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.201534342778747</v>
+        <v>-1.68536620841505</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.238025550258181</v>
+        <v>0.385698211868311</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.898305084745763</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4495</v>
+        <v>0.77</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0031986863711001</v>
+        <v>0.001425644028103</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0047392767226657</v>
+        <v>-0.0101778828342866</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008450663361577701</v>
+        <v>0.0120080986826586</v>
       </c>
       <c r="N25" t="n">
-        <v>0.711609871212495</v>
+        <v>0.185148575078318</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0049107769587301</v>
+        <v>0.007306613576889</v>
       </c>
       <c r="G26" t="n">
-        <v>0.135593220338983</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.26271186440678</v>
+        <v>0.432203389830508</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0.0255</v>
       </c>
       <c r="K26" t="n">
-        <v>0.209552495697074</v>
+        <v>0.0009154135338344999</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0002857215793602</v>
       </c>
       <c r="M26" t="n">
-        <v>0.427693208430913</v>
+        <v>0.0015922257038774</v>
       </c>
       <c r="N26" t="n">
-        <v>10.4776247848537</v>
+        <v>3.58985699542975</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0891269056719651</v>
+        <v>0.215882132107504</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.76271186440678</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.77</v>
+        <v>2.08</v>
       </c>
       <c r="K27" t="n">
-        <v>0.009596059113300401</v>
+        <v>0.0411502929247409</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0019501326658223</v>
+        <v>-0.0437225994983844</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0194098374521471</v>
+        <v>0.153073721301868</v>
       </c>
       <c r="N27" t="n">
-        <v>1.24624144328578</v>
+        <v>1.97837946753562</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.0002973260038191</v>
+        <v>0.0021313144498605</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.415254237288136</v>
+        <v>0.5777777777777779</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.025</v>
+        <v>41</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0011660015961692</v>
+        <v>1.97095286885246</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0006138655462184001</v>
+        <v>0.70631577121306</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0017788149350649</v>
+        <v>3.52024629830081</v>
       </c>
       <c r="N28" t="n">
-        <v>4.66400638467678</v>
+        <v>4.80720211915234</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.07003118582001169</v>
+        <v>0.009658283430924</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0326797385620915</v>
       </c>
       <c r="H29" t="n">
-        <v>0.923728813559322</v>
+        <v>0.418300653594771</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2.09</v>
+        <v>1.6</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07197044334975369</v>
+        <v>-0.0393328329972585</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0090437807271956</v>
+        <v>-0.072439677829181</v>
       </c>
       <c r="M29" t="n">
-        <v>0.214602376290912</v>
+        <v>-0.008102262644188099</v>
       </c>
       <c r="N29" t="n">
-        <v>3.44356188276333</v>
+        <v>-2.45830206232866</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0238243044420474</v>
+        <v>0.045325474759596</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.589147286821705</v>
+        <v>0.796610169491525</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>39</v>
+        <v>10.18</v>
       </c>
       <c r="K30" t="n">
-        <v>1.41878251989802</v>
+        <v>-0.0259893267651886</v>
       </c>
       <c r="L30" t="n">
-        <v>0.176043989277848</v>
+        <v>-0.0486252038376455</v>
       </c>
       <c r="M30" t="n">
-        <v>2.82115733039592</v>
+        <v>-0.0009950033948440001</v>
       </c>
       <c r="N30" t="n">
-        <v>3.63790389717442</v>
+        <v>-0.255297905355488</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0198523010367559</v>
+        <v>0.390703190593311</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0326797385620915</v>
+        <v>0.235955056179775</v>
       </c>
       <c r="H31" t="n">
-        <v>0.411764705882353</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.6</v>
+        <v>0.007</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0330775944447762</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.06616298377835871</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-2.06734965279852</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.015156181223663</v>
+        <v>0.0877119095488629</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.795454545454545</v>
+        <v>0.752808988764045</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.185</v>
+        <v>233</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0342622630447528</v>
+        <v>5.79761904761905</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0615370493548641</v>
+        <v>-0.8940497081884859</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0082282404737183</v>
+        <v>13.737762631939</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.336399244425654</v>
+        <v>2.48824851829144</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,23 +3382,23 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.731668983174681</v>
+        <v>0.0026511763577187</v>
       </c>
       <c r="G33" t="n">
-        <v>0.247191011235955</v>
+        <v>0.726744186046512</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0842696629213483</v>
+        <v>0.27906976744186</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0065</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,43 +3462,43 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5</v>
+        <v>0.0108400639928755</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.279761904761905</v>
       </c>
       <c r="H34" t="n">
-        <v>0.752808988764045</v>
+        <v>0.107142857142857</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>247.5</v>
+        <v>0.003</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-6.40967364884104</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>6.76491408221109</v>
+        <v>0.0001236459038591</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.0031130708396</v>
+        <v>0.965543667416198</v>
       </c>
       <c r="G35" t="n">
-        <v>0.767441860465116</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="H35" t="n">
-        <v>0.244186046511628</v>
+        <v>0.8988095238095239</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.431</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-0.0066838265306122</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0129607529356768</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>-1.55077181684739</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.0002642979374916</v>
+        <v>0.694014423953812</v>
       </c>
       <c r="G36" t="n">
-        <v>0.282051282051282</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.115384615384615</v>
+        <v>0.534883720930233</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.003</v>
+        <v>7.43</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0001248291182501</v>
+        <v>0.0029293247508436</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0059106121223418</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0002121080139372</v>
+        <v>0.0117224110534659</v>
       </c>
       <c r="N36" t="n">
-        <v>4.16097060833903</v>
+        <v>0.0394256359467513</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.942426210278273</v>
+        <v>0.980272672595967</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0754716981132075</v>
+        <v>0.0112359550561798</v>
       </c>
       <c r="H37" t="n">
-        <v>0.893081761006289</v>
+        <v>0.910112359550562</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0061385139141434</v>
+        <v>-0.0064849084949467</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0129550183780449</v>
+        <v>-0.0124558871865918</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-0.0015202698674964</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.32581294041974</v>
+        <v>-1.40670466267825</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3783,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.95215649757715</v>
+        <v>0.855329221696097</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.546511627906977</v>
+        <v>0.6741573033707861</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.425</v>
+        <v>0.76</v>
       </c>
       <c r="K38" t="n">
-        <v>0.009632122932612701</v>
+        <v>-0.002851288056206</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0099998481877056</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0195811964902737</v>
+        <v>0.0015160712394331</v>
       </c>
       <c r="N38" t="n">
-        <v>0.12972556138199</v>
+        <v>-0.375169481079749</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.936156459127372</v>
+        <v>0.0038181448147433</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0168539325842697</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.904494382022472</v>
+        <v>0.325842696629214</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4885</v>
+        <v>0.025</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.0039881710646041</v>
+        <v>0.0005180851063829</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.009817168328388101</v>
+        <v>0.0001892195011671</v>
       </c>
       <c r="M39" t="n">
-        <v>4.51002784742647e-05</v>
+        <v>0.0008553864168618</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.816411681597581</v>
+        <v>2.07234042553191</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.704302210772152</v>
+        <v>0.221169211079778</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.668539325842697</v>
+        <v>0.859550561797753</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.76</v>
+        <v>2.075</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0018724367737525</v>
+        <v>0.01223804447152</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.008717183770883</v>
+        <v>-0.0192069897245144</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0045789356112302</v>
+        <v>0.057781136269054</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.246373259704285</v>
+        <v>0.589785275735902</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.0004394398365659</v>
+        <v>0.01606541644429</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.0324324324324324</v>
       </c>
       <c r="H41" t="n">
-        <v>0.314606741573034</v>
+        <v>0.405405405405405</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>0.024</v>
+        <v>1.6</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0005733908948194</v>
+        <v>-0.027124291577096</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0002882794001578</v>
+        <v>-0.0499316473000683</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0008809234729623</v>
+        <v>-0.0065706862298677</v>
       </c>
       <c r="N41" t="n">
-        <v>2.38912872841444</v>
+        <v>-1.6952682235685</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4186,46 +4186,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.997048135790509</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.210280373831776</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0981308411214953</v>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.0287899225111873</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.853932584269663</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
       <c r="J42" t="n">
-        <v>2.07</v>
+        <v>0.007</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0361140470508012</v>
+        <v>-8.9675914559293e-05</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0066204561512341</v>
+        <v>-0.0001968499027938</v>
       </c>
       <c r="M42" t="n">
-        <v>0.07456940643631441</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1.74463995414499</v>
+        <v>-1.28108449370419</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,11 +4277,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4292,31 +4292,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.634506455325861</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0.738317757009346</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.38</v>
+        <v>260</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0059956875133966</v>
+        <v>-1.01317614424411</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0389522627991902</v>
+        <v>-6.11619897491884</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0476467192122255</v>
+        <v>4.83420288308808</v>
       </c>
       <c r="N43" t="n">
-        <v>1.57781250352542</v>
+        <v>-0.389683132401579</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4354,7 +4354,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4364,46 +4368,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.889664319040077</v>
+        <v>0.009374785522142401</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.735576923076923</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.269230769230769</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>96</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>2.64587865257043</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-4.8390400070307</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>4.9537214594791</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2.75612359642753</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4416,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4441,7 +4445,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4451,14 +4459,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4466,31 +4474,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.889664319040077</v>
+        <v>0.998589837089663</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.0717948717948718</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.861538461538462</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3.92</v>
+        <v>0.47</v>
       </c>
       <c r="K45" t="n">
-        <v>0.160884301392683</v>
+        <v>-0.0082993898590364</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0755349887838755</v>
+        <v>-0.0136745639506381</v>
       </c>
       <c r="M45" t="n">
-        <v>0.323226243488997</v>
+        <v>-0.0030845833824825</v>
       </c>
       <c r="N45" t="n">
-        <v>4.10419136205823</v>
+        <v>-1.76582762958221</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4528,7 +4536,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4538,14 +4550,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4553,31 +4565,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.053702318165127</v>
+        <v>0.998020242292246</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0186915887850467</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.892523364485981</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0.385</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0117618594182825</v>
+        <v>-0.0059632653061224</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0269589179509609</v>
+        <v>-0.0108463046739481</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0018527666760197</v>
+        <v>-0.0024678590436571</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.05502842033313</v>
+        <v>-1.18908580381305</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4615,7 +4627,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4625,46 +4641,46 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.5</v>
+        <v>0.0093349684893669</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.8</v>
+        <v>0.29064039408867</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>97</v>
+        <v>0.024</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>0.0003508645533141</v>
       </c>
       <c r="L47" t="n">
-        <v>-1.48110867758945</v>
+        <v>8.889793876231451e-05</v>
       </c>
       <c r="M47" t="n">
-        <v>0.884770016821791</v>
+        <v>0.0006211734693877</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1.46193563880884</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4673,7 +4689,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4702,7 +4718,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4712,14 +4732,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4727,31 +4747,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.141565435331173</v>
+        <v>0.122533056012604</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8224299065420561</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>4.03</v>
+        <v>2.05</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0739858898891967</v>
+        <v>0.0153205167173252</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.192020004976717</v>
+        <v>-0.0101828168382926</v>
       </c>
       <c r="M48" t="n">
-        <v>0.0311956205545248</v>
+        <v>0.0426165446071873</v>
       </c>
       <c r="N48" t="n">
-        <v>-1.83587816102225</v>
+        <v>0.747342278893914</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4789,7 +4809,11 @@
           <t>Mana_8d</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4799,46 +4823,46 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.460385453024782</v>
+        <v>0.174041311816462</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.7333333333333329</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>96</v>
+        <v>0.38</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>-0.0056625576382929</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.695076308227987</v>
+        <v>-0.0219131311597837</v>
       </c>
       <c r="M49" t="n">
-        <v>0.664797366356525</v>
+        <v>0.0056575466364052</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>-1.49014674691918</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4847,7 +4871,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4877,6 +4901,267 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.624085182977075</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>96</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.396280237118843</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-1.16056848036736</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.77232475097562</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.412791913665462</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.377227088747045</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.0111624021526418</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.159676454821773</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.06820235962604369</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.279759452447164</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Makakahi at Hamua</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>15</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.649862279686686</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.785714285714286</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.184190620272315</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.5251247397691861</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.716243829259076</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.19286975944745</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1832392</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5505889</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Mana_8d</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
+++ b/trend_results/Rivers/MakakahiatHamua_da24b46cc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="69">
   <si>
     <t>site name</t>
   </si>
@@ -139,55 +139,58 @@
     <t>ok</t>
   </si>
   <si>
+    <t>WARNING: Sen slope influenced by censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope influenced by censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>Extremely unlikely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
+    <t>Very likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -575,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W52"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,31 +672,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.0218567330581458</v>
+        <v>0.387577547418485</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.861111111111111</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>60</v>
+        <v>67.5</v>
       </c>
       <c r="K2">
-        <v>11.173641897704</v>
+        <v>2.07057823129252</v>
       </c>
       <c r="L2">
-        <v>2.13234995352332</v>
+        <v>-9.43336587563906</v>
       </c>
       <c r="M2">
-        <v>22.1585853535859</v>
+        <v>15.6428385674737</v>
       </c>
       <c r="N2">
-        <v>18.6227364961733</v>
+        <v>3.06752330561854</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -708,19 +711,19 @@
         <v>5505889</v>
       </c>
       <c r="S2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -740,13 +743,13 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.648891210600189</v>
+        <v>0.641478949901044</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.627450980392157</v>
+        <v>0.673469387755102</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -755,22 +758,22 @@
         <v>1.6</v>
       </c>
       <c r="K3">
-        <v>0.0127264808362369</v>
+        <v>0.0260243869936034</v>
       </c>
       <c r="L3">
-        <v>-0.13358940103593</v>
+        <v>-0.130714647212761</v>
       </c>
       <c r="M3">
-        <v>0.152837086072366</v>
+        <v>0.192031468577036</v>
       </c>
       <c r="N3">
-        <v>0.795405052264806</v>
+        <v>1.62652418710021</v>
       </c>
       <c r="O3" t="s">
         <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3">
         <v>1832392</v>
@@ -779,19 +782,19 @@
         <v>5505889</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,43 +808,43 @@
         <v>5</v>
       </c>
       <c r="D4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.01669712809119</v>
+        <v>0.669583528345139</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.929824561403509</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.32</v>
+        <v>10.165</v>
       </c>
       <c r="K4">
-        <v>-0.193916632506661</v>
+        <v>0.0354611650485438</v>
       </c>
       <c r="L4">
-        <v>-0.344209253806192</v>
+        <v>-0.053917108882373</v>
       </c>
       <c r="M4">
-        <v>-0.0447769166314257</v>
+        <v>0.105961514971911</v>
       </c>
       <c r="N4">
-        <v>-1.87903713669245</v>
+        <v>0.348855534171607</v>
       </c>
       <c r="O4" t="s">
         <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q4">
         <v>1832392</v>
@@ -850,19 +853,19 @@
         <v>5505889</v>
       </c>
       <c r="S4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,43 +879,43 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5">
-        <v>0.161252013457819</v>
+        <v>0.622382466989259</v>
       </c>
       <c r="G5">
-        <v>0.137931034482759</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="H5">
-        <v>0.206896551724138</v>
+        <v>0.186440677966102</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K5">
-        <v>0.0002496582365003</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.000480260985974</v>
       </c>
       <c r="M5">
-        <v>0.0009747429090191</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3.56654623571917</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q5">
         <v>1832392</v>
@@ -921,19 +924,19 @@
         <v>5505889</v>
       </c>
       <c r="S5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,43 +950,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.618645395913537</v>
+        <v>0.865596628226167</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.862068965517241</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K6">
-        <v>-5.40310650887574</v>
+        <v>-40.2443956043956</v>
       </c>
       <c r="L6">
-        <v>-47.3228548652338</v>
+        <v>-85.13382646432071</v>
       </c>
       <c r="M6">
-        <v>53.9405053312284</v>
+        <v>12.6974524204174</v>
       </c>
       <c r="N6">
-        <v>-1.98643621649843</v>
+        <v>-15.1865643790172</v>
       </c>
       <c r="O6" t="s">
         <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q6">
         <v>1832392</v>
@@ -992,19 +995,19 @@
         <v>5505889</v>
       </c>
       <c r="S6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1021,16 +1024,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7">
-        <v>0.138607807027793</v>
+        <v>0.74213994861996</v>
       </c>
       <c r="G7">
-        <v>0.6</v>
+        <v>0.642857142857143</v>
       </c>
       <c r="H7">
-        <v>0.418181818181818</v>
+        <v>0.375</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q7">
         <v>1832392</v>
@@ -1063,19 +1066,19 @@
         <v>5505889</v>
       </c>
       <c r="S7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1095,37 +1098,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.993321013274414</v>
+        <v>0.999999363094986</v>
       </c>
       <c r="G8">
-        <v>0.137931034482759</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="H8">
-        <v>0.172413793103448</v>
+        <v>0.169491525423729</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.0035</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0003549562682215</v>
+        <v>-0.0008152901785714001</v>
       </c>
       <c r="L8">
-        <v>-0.0006956441415019</v>
+        <v>-0.0011161191749427</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-0.0005217857142857</v>
       </c>
       <c r="N8">
-        <v>-10.1416076634736</v>
+        <v>-27.1763392857143</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8">
         <v>1832392</v>
@@ -1134,19 +1137,19 @@
         <v>5505889</v>
       </c>
       <c r="S8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1166,37 +1169,37 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>0.303883015703927</v>
+        <v>0.914844764406779</v>
       </c>
       <c r="G9">
-        <v>0.0517241379310345</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H9">
-        <v>0.9655172413793101</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.3595</v>
+        <v>0.301</v>
       </c>
       <c r="K9">
-        <v>0.0059917976760082</v>
+        <v>-0.0249567691107436</v>
       </c>
       <c r="L9">
-        <v>-0.0182604448772897</v>
+        <v>-0.0379837722999329</v>
       </c>
       <c r="M9">
-        <v>0.0276706520537957</v>
+        <v>0.0018736877435335</v>
       </c>
       <c r="N9">
-        <v>1.66670310876445</v>
+        <v>-8.291285418851711</v>
       </c>
       <c r="O9" t="s">
         <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q9">
         <v>1832392</v>
@@ -1205,19 +1208,19 @@
         <v>5505889</v>
       </c>
       <c r="S9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1237,31 +1240,31 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.005532776056141</v>
+        <v>0.853938959837292</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.859649122807018</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.42</v>
+        <v>7.435</v>
       </c>
       <c r="K10">
-        <v>-0.0702967573157182</v>
+        <v>0.0347857142857146</v>
       </c>
       <c r="L10">
-        <v>-0.126001120690433</v>
+        <v>-0.0188750035391397</v>
       </c>
       <c r="M10">
-        <v>-0.0283837266127927</v>
+        <v>0.0796855955512675</v>
       </c>
       <c r="N10">
-        <v>-0.9473956511552309</v>
+        <v>0.46786434816025</v>
       </c>
       <c r="O10" t="s">
         <v>44</v>
@@ -1276,16 +1279,16 @@
         <v>5505889</v>
       </c>
       <c r="S10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1305,37 +1308,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.356952069103736</v>
+        <v>0.914844764406779</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.913793103448276</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.397</v>
+        <v>0.3375</v>
       </c>
       <c r="K11">
-        <v>0.0078760107816711</v>
+        <v>-0.0216707671309582</v>
       </c>
       <c r="L11">
-        <v>-0.0168039157986438</v>
+        <v>-0.0412383841525238</v>
       </c>
       <c r="M11">
-        <v>0.0315390244694637</v>
+        <v>0.001771663409342</v>
       </c>
       <c r="N11">
-        <v>1.98388180898518</v>
+        <v>-6.42096803880243</v>
       </c>
       <c r="O11" t="s">
         <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1832392</v>
@@ -1344,19 +1347,19 @@
         <v>5505889</v>
       </c>
       <c r="S11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1376,37 +1379,37 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>0.0162620906326638</v>
+        <v>0.903616016399306</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.827586206896552</v>
+        <v>0.813559322033898</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="K12">
-        <v>0.0409243697478991</v>
+        <v>-0.025862032704138</v>
       </c>
       <c r="L12">
-        <v>0.0200686813186813</v>
+        <v>-0.0602060439560439</v>
       </c>
       <c r="M12">
-        <v>0.0802368386955699</v>
+        <v>0.0100343406593406</v>
       </c>
       <c r="N12">
-        <v>6.20066208301502</v>
+        <v>-4.38339537358271</v>
       </c>
       <c r="O12" t="s">
         <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1832392</v>
@@ -1415,19 +1418,19 @@
         <v>5505889</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1447,13 +1450,13 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.279562177655435</v>
+        <v>0.988646872916368</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.620689655172414</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1462,22 +1465,22 @@
         <v>0.026</v>
       </c>
       <c r="K13">
-        <v>0.0006776437847866</v>
+        <v>-0.0027257462686567</v>
       </c>
       <c r="L13">
-        <v>-0.0012830796252927</v>
+        <v>-0.0053110886894989</v>
       </c>
       <c r="M13">
-        <v>0.0031814109428131</v>
+        <v>-0.0007780941572593</v>
       </c>
       <c r="N13">
-        <v>2.60632224917939</v>
+        <v>-10.4836394948335</v>
       </c>
       <c r="O13" t="s">
         <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q13">
         <v>1832392</v>
@@ -1486,19 +1489,19 @@
         <v>5505889</v>
       </c>
       <c r="S13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1518,37 +1521,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.935182709560494</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9655172413793101</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="K14">
-        <v>0.0066895604395604</v>
+        <v>-0.132955013736264</v>
       </c>
       <c r="L14">
-        <v>-0.107756223735241</v>
+        <v>-0.516434837685852</v>
       </c>
       <c r="M14">
-        <v>0.685858530167895</v>
+        <v>-0.0097133461945911</v>
       </c>
       <c r="N14">
-        <v>0.346609349200023</v>
+        <v>-7.22581596392738</v>
       </c>
       <c r="O14" t="s">
         <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q14">
         <v>1832392</v>
@@ -1557,19 +1560,19 @@
         <v>5505889</v>
       </c>
       <c r="S14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,19 +1586,19 @@
         <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.0223354374874807</v>
+        <v>0.0216248190596324</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.682926829268293</v>
+        <v>0.702702702702703</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1604,22 +1607,22 @@
         <v>48.25</v>
       </c>
       <c r="K15">
-        <v>3.63794445375875</v>
+        <v>4.01373626373626</v>
       </c>
       <c r="L15">
-        <v>0.866102155944205</v>
+        <v>0.687669337611336</v>
       </c>
       <c r="M15">
-        <v>6.2096547453588</v>
+        <v>6.89900498241657</v>
       </c>
       <c r="N15">
-        <v>7.53978125131348</v>
+        <v>8.31862438080055</v>
       </c>
       <c r="O15" t="s">
         <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1832392</v>
@@ -1628,19 +1631,19 @@
         <v>5505889</v>
       </c>
       <c r="S15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1657,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F16">
-        <v>0.445822893720808</v>
+        <v>0.307232715594586</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1675,22 +1678,22 @@
         <v>1.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>-0.0130041315439219</v>
       </c>
       <c r="L16">
-        <v>-0.0708300599547759</v>
+        <v>-0.0727446817401521</v>
       </c>
       <c r="M16">
-        <v>0.0535406472180006</v>
+        <v>0.0321804072101821</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>-0.866942102928125</v>
       </c>
       <c r="O16" t="s">
         <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q16">
         <v>1832392</v>
@@ -1699,19 +1702,19 @@
         <v>5505889</v>
       </c>
       <c r="S16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1731,7 +1734,7 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.236631726083816</v>
+        <v>0.510595537630108</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1743,25 +1746,25 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.14</v>
+        <v>10.05</v>
       </c>
       <c r="K17">
-        <v>-0.0265878070973613</v>
+        <v>0.000836195054945</v>
       </c>
       <c r="L17">
-        <v>-0.0614229745771226</v>
+        <v>-0.0379306390222727</v>
       </c>
       <c r="M17">
-        <v>0.0195702338494276</v>
+        <v>0.0371039443335623</v>
       </c>
       <c r="N17">
-        <v>-0.262207170585417</v>
+        <v>0.0083203488054232</v>
       </c>
       <c r="O17" t="s">
         <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q17">
         <v>1832392</v>
@@ -1770,19 +1773,19 @@
         <v>5505889</v>
       </c>
       <c r="S17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1799,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18">
-        <v>0.0375644995806331</v>
+        <v>0.163744539321939</v>
       </c>
       <c r="G18">
-        <v>0.228813559322034</v>
+        <v>0.245762711864407</v>
       </c>
       <c r="H18">
-        <v>0.11864406779661</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1823,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0003347341690731</v>
+        <v>0.0001935624395812</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1832,7 +1835,7 @@
         <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q18">
         <v>1832392</v>
@@ -1841,19 +1844,19 @@
         <v>5505889</v>
       </c>
       <c r="S18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1873,37 +1876,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.10202480017717</v>
+        <v>0.632791953837255</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.771186440677966</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>261.5</v>
+        <v>270</v>
       </c>
       <c r="K19">
-        <v>11.3053571428571</v>
+        <v>-1.99098234811166</v>
       </c>
       <c r="L19">
-        <v>-2.12322535683684</v>
+        <v>-15.3767027853306</v>
       </c>
       <c r="M19">
-        <v>30.7093107399456</v>
+        <v>10.6061279690258</v>
       </c>
       <c r="N19">
-        <v>4.32327232996449</v>
+        <v>-0.7374008696709849</v>
       </c>
       <c r="O19" t="s">
         <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1832392</v>
@@ -1912,19 +1915,19 @@
         <v>5505889</v>
       </c>
       <c r="S19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1941,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F20">
-        <v>0.0171958826386376</v>
+        <v>0.178151170753906</v>
       </c>
       <c r="G20">
         <v>0.690265486725664</v>
@@ -1974,7 +1977,7 @@
         <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q20">
         <v>1832392</v>
@@ -1983,19 +1986,19 @@
         <v>5505889</v>
       </c>
       <c r="S20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2012,40 +2015,40 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>0.962858835635254</v>
+        <v>0.999996466950909</v>
       </c>
       <c r="G21">
+        <v>0.194915254237288</v>
+      </c>
+      <c r="H21">
         <v>0.135593220338983</v>
-      </c>
-      <c r="H21">
-        <v>0.152542372881356</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>-0.0003636137381781</v>
       </c>
       <c r="L21">
-        <v>-0.0002751753520995</v>
+        <v>-0.0005149201127819</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.0002070578231292</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>-12.1204579392733</v>
       </c>
       <c r="O21" t="s">
         <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>1832392</v>
@@ -2054,19 +2057,19 @@
         <v>5505889</v>
       </c>
       <c r="S21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2086,37 +2089,37 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.902941765921472</v>
+        <v>0.998446457360728</v>
       </c>
       <c r="G22">
-        <v>0.076271186440678</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H22">
-        <v>0.906779661016949</v>
+        <v>0.923728813559322</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.414</v>
+        <v>0.3998</v>
       </c>
       <c r="K22">
-        <v>-0.0090891705069124</v>
+        <v>-0.0181002221462748</v>
       </c>
       <c r="L22">
-        <v>-0.0200236634002865</v>
+        <v>-0.0285900721494655</v>
       </c>
       <c r="M22">
-        <v>0.0012197585273469</v>
+        <v>-0.0086495569009416</v>
       </c>
       <c r="N22">
-        <v>-2.19545181326388</v>
+        <v>-4.52731919616677</v>
       </c>
       <c r="O22" t="s">
         <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1832392</v>
@@ -2125,19 +2128,19 @@
         <v>5505889</v>
       </c>
       <c r="S22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2157,37 +2160,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.0332319492263899</v>
+        <v>0.355725638454867</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.646551724137931</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.46</v>
+        <v>7.475</v>
       </c>
       <c r="K23">
-        <v>-0.0169845003741066</v>
+        <v>-0.0038319693708779</v>
       </c>
       <c r="L23">
-        <v>-0.0315850916637842</v>
+        <v>-0.0195419945043931</v>
       </c>
       <c r="M23">
-        <v>-0.0017205743805214</v>
+        <v>0.0123341988982627</v>
       </c>
       <c r="N23">
-        <v>-0.227674267749418</v>
+        <v>-0.0512638042926811</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <v>1832392</v>
@@ -2196,16 +2199,16 @@
         <v>5505889</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2225,37 +2228,37 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.8716447029769639</v>
+        <v>0.998136765497375</v>
       </c>
       <c r="G24">
         <v>0.0169491525423729</v>
       </c>
       <c r="H24">
-        <v>0.906779661016949</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.455</v>
+        <v>0.43</v>
       </c>
       <c r="K24">
-        <v>-0.0076684162482884</v>
+        <v>-0.0181002221462748</v>
       </c>
       <c r="L24">
-        <v>-0.0207244728023619</v>
+        <v>-0.0275240324958029</v>
       </c>
       <c r="M24">
-        <v>0.0032413795143267</v>
+        <v>-0.0074581326413731</v>
       </c>
       <c r="N24">
-        <v>-1.68536620841505</v>
+        <v>-4.20935398750576</v>
       </c>
       <c r="O24" t="s">
         <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1832392</v>
@@ -2264,19 +2267,19 @@
         <v>5505889</v>
       </c>
       <c r="S24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2296,37 +2299,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.385698211868311</v>
+        <v>0.990633548753201</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.745762711864407</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.77</v>
+        <v>0.715</v>
       </c>
       <c r="K25">
-        <v>0.001425644028103</v>
+        <v>-0.0149794941900205</v>
       </c>
       <c r="L25">
-        <v>-0.0101778828342866</v>
+        <v>-0.0249658236500342</v>
       </c>
       <c r="M25">
-        <v>0.0120080986826586</v>
+        <v>-0.0050171703296703</v>
       </c>
       <c r="N25">
-        <v>0.185148575078318</v>
+        <v>-2.09503415245042</v>
       </c>
       <c r="O25" t="s">
         <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q25">
         <v>1832392</v>
@@ -2335,19 +2338,19 @@
         <v>5505889</v>
       </c>
       <c r="S25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2364,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F26">
-        <v>0.007306613576889</v>
+        <v>0.611785316201486</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2379,25 +2382,25 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.0255</v>
+        <v>0.026</v>
       </c>
       <c r="K26">
-        <v>0.0009154135338344999</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>0.0002857215793602</v>
+        <v>-0.0007172312223858</v>
       </c>
       <c r="M26">
-        <v>0.0015922257038774</v>
+        <v>0.0005215604086611999</v>
       </c>
       <c r="N26">
-        <v>3.58985699542975</v>
+        <v>0</v>
       </c>
       <c r="O26" t="s">
         <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Q26">
         <v>1832392</v>
@@ -2406,19 +2409,19 @@
         <v>5505889</v>
       </c>
       <c r="S26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2438,37 +2441,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.215882132107504</v>
+        <v>0.89836948384052</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.932203389830508</v>
+        <v>0.915254237288136</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>2.08</v>
+        <v>2.075</v>
       </c>
       <c r="K27">
-        <v>0.0411502929247409</v>
+        <v>-0.0596326530612245</v>
       </c>
       <c r="L27">
-        <v>-0.0437225994983844</v>
+        <v>-0.132570147756957</v>
       </c>
       <c r="M27">
-        <v>0.153073721301868</v>
+        <v>0.0210379397455754</v>
       </c>
       <c r="N27">
-        <v>1.97837946753562</v>
+        <v>-2.8738627981313</v>
       </c>
       <c r="O27" t="s">
         <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q27">
         <v>1832392</v>
@@ -2477,19 +2480,19 @@
         <v>5505889</v>
       </c>
       <c r="S27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2509,37 +2512,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0021313144498605</v>
+        <v>0.0066829662579076</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.5777777777777779</v>
+        <v>0.580152671755725</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>41</v>
+        <v>42.5</v>
       </c>
       <c r="K28">
-        <v>1.97095286885246</v>
+        <v>1.94600409836066</v>
       </c>
       <c r="L28">
-        <v>0.70631577121306</v>
+        <v>0.590151256532778</v>
       </c>
       <c r="M28">
-        <v>3.52024629830081</v>
+        <v>3.30357119451604</v>
       </c>
       <c r="N28">
-        <v>4.80720211915234</v>
+        <v>4.57883317261331</v>
       </c>
       <c r="O28" t="s">
         <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q28">
         <v>1832392</v>
@@ -2548,19 +2551,19 @@
         <v>5505889</v>
       </c>
       <c r="S28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2577,40 +2580,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F29">
-        <v>0.009658283430924</v>
+        <v>0.011903850431053</v>
       </c>
       <c r="G29">
-        <v>0.0326797385620915</v>
+        <v>0.02</v>
       </c>
       <c r="H29">
-        <v>0.418300653594771</v>
+        <v>0.413333333333333</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J29">
         <v>1.6</v>
       </c>
       <c r="K29">
-        <v>-0.0393328329972585</v>
+        <v>-0.0330244122965641</v>
       </c>
       <c r="L29">
-        <v>-0.072439677829181</v>
+        <v>-0.0636324041811847</v>
       </c>
       <c r="M29">
-        <v>-0.008102262644188099</v>
+        <v>-0.0041322557201316</v>
       </c>
       <c r="N29">
-        <v>-2.45830206232866</v>
+        <v>-2.06402576853525</v>
       </c>
       <c r="O29" t="s">
         <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q29">
         <v>1832392</v>
@@ -2619,19 +2622,19 @@
         <v>5505889</v>
       </c>
       <c r="S29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2651,13 +2654,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.045325474759596</v>
+        <v>0.153622781313113</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.796610169491525</v>
+        <v>0.785310734463277</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -2666,22 +2669,22 @@
         <v>10.18</v>
       </c>
       <c r="K30">
-        <v>-0.0259893267651886</v>
+        <v>-0.0144017288444039</v>
       </c>
       <c r="L30">
-        <v>-0.0486252038376455</v>
+        <v>-0.0347508502356735</v>
       </c>
       <c r="M30">
-        <v>-0.0009950033948440001</v>
+        <v>0.0098464190229882</v>
       </c>
       <c r="N30">
-        <v>-0.255297905355488</v>
+        <v>-0.141470813795716</v>
       </c>
       <c r="O30" t="s">
         <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q30">
         <v>1832392</v>
@@ -2690,19 +2693,19 @@
         <v>5505889</v>
       </c>
       <c r="S30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2719,22 +2722,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F31">
-        <v>0.390703190593311</v>
+        <v>0.46797884107261</v>
       </c>
       <c r="G31">
-        <v>0.235955056179775</v>
+        <v>0.252808988764045</v>
       </c>
       <c r="H31">
-        <v>0.0898876404494382</v>
+        <v>0.0842696629213483</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2752,7 +2755,7 @@
         <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q31">
         <v>1832392</v>
@@ -2761,19 +2764,19 @@
         <v>5505889</v>
       </c>
       <c r="S31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2793,37 +2796,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.0877119095488629</v>
+        <v>0.170337623403584</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.752808988764045</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="K32">
-        <v>5.79761904761905</v>
+        <v>3.37744227697147</v>
       </c>
       <c r="L32">
-        <v>-0.8940497081884859</v>
+        <v>-2.06958169017916</v>
       </c>
       <c r="M32">
-        <v>13.737762631939</v>
+        <v>10.3728007398202</v>
       </c>
       <c r="N32">
-        <v>2.48824851829144</v>
+        <v>1.53520103498703</v>
       </c>
       <c r="O32" t="s">
         <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q32">
         <v>1832392</v>
@@ -2832,19 +2835,19 @@
         <v>5505889</v>
       </c>
       <c r="S32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2861,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F33">
-        <v>0.0026511763577187</v>
+        <v>0.0562020104198874</v>
       </c>
       <c r="G33">
-        <v>0.726744186046512</v>
+        <v>0.720930232558139</v>
       </c>
       <c r="H33">
-        <v>0.27906976744186</v>
+        <v>0.284883720930233</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -2894,7 +2897,7 @@
         <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q33">
         <v>1832392</v>
@@ -2903,19 +2906,19 @@
         <v>5505889</v>
       </c>
       <c r="S33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2929,19 +2932,19 @@
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34">
-        <v>0.0108400639928755</v>
+        <v>0.25821309862713</v>
       </c>
       <c r="G34">
-        <v>0.279761904761905</v>
+        <v>0.292134831460674</v>
       </c>
       <c r="H34">
-        <v>0.107142857142857</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2956,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0.0001236459038591</v>
+        <v>4.56370787923715E-05</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -2965,7 +2968,7 @@
         <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q34">
         <v>1832392</v>
@@ -2974,19 +2977,19 @@
         <v>5505889</v>
       </c>
       <c r="S34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3006,37 +3009,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.965543667416198</v>
+        <v>0.999612903438475</v>
       </c>
       <c r="G35">
-        <v>0.0714285714285714</v>
+        <v>0.0730337078651685</v>
       </c>
       <c r="H35">
-        <v>0.8988095238095239</v>
+        <v>0.893258426966292</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.431</v>
+        <v>0.4115</v>
       </c>
       <c r="K35">
-        <v>-0.0066838265306122</v>
+        <v>-0.0115394917582417</v>
       </c>
       <c r="L35">
-        <v>-0.0129607529356768</v>
+        <v>-0.0170796402169454</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-0.0050854254850211</v>
       </c>
       <c r="N35">
-        <v>-1.55077181684739</v>
+        <v>-2.80425073104294</v>
       </c>
       <c r="O35" t="s">
         <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q35">
         <v>1832392</v>
@@ -3045,19 +3048,19 @@
         <v>5505889</v>
       </c>
       <c r="S35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3077,37 +3080,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.694014423953812</v>
+        <v>0.376372333951834</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.534883720930233</v>
+        <v>0.5</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.43</v>
+        <v>7.485</v>
       </c>
       <c r="K36">
-        <v>0.0029293247508436</v>
+        <v>-0.0015346638655461</v>
       </c>
       <c r="L36">
-        <v>-0.0059106121223418</v>
+        <v>-0.009207983193277199</v>
       </c>
       <c r="M36">
-        <v>0.0117224110534659</v>
+        <v>0.0062896942344403</v>
       </c>
       <c r="N36">
-        <v>0.0394256359467513</v>
+        <v>-0.0205031912564621</v>
       </c>
       <c r="O36" t="s">
         <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="Q36">
         <v>1832392</v>
@@ -3116,16 +3119,16 @@
         <v>5505889</v>
       </c>
       <c r="S36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3145,37 +3148,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.980272672595967</v>
+        <v>0.999420233999211</v>
       </c>
       <c r="G37">
         <v>0.0112359550561798</v>
       </c>
       <c r="H37">
-        <v>0.910112359550562</v>
+        <v>0.921348314606742</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.461</v>
+        <v>0.449</v>
       </c>
       <c r="K37">
-        <v>-0.0064849084949467</v>
+        <v>-0.0107353041695147</v>
       </c>
       <c r="L37">
-        <v>-0.0124558871865918</v>
+        <v>-0.0175754427712162</v>
       </c>
       <c r="M37">
-        <v>-0.0015202698674964</v>
+        <v>-0.0051239556931036</v>
       </c>
       <c r="N37">
-        <v>-1.40670466267825</v>
+        <v>-2.39093634064915</v>
       </c>
       <c r="O37" t="s">
         <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q37">
         <v>1832392</v>
@@ -3184,19 +3187,19 @@
         <v>5505889</v>
       </c>
       <c r="S37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3216,37 +3219,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.855329221696097</v>
+        <v>0.99490166489509</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.6741573033707861</v>
+        <v>0.685393258426966</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.76</v>
+        <v>0.735</v>
       </c>
       <c r="K38">
-        <v>-0.002851288056206</v>
+        <v>-0.009845013477088899</v>
       </c>
       <c r="L38">
-        <v>-0.0099998481877056</v>
+        <v>-0.0141365295193179</v>
       </c>
       <c r="M38">
-        <v>0.0015160712394331</v>
+        <v>-0.0027761642152307</v>
       </c>
       <c r="N38">
-        <v>-0.375169481079749</v>
+        <v>-1.33945761593047</v>
       </c>
       <c r="O38" t="s">
         <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q38">
         <v>1832392</v>
@@ -3255,19 +3258,19 @@
         <v>5505889</v>
       </c>
       <c r="S38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3287,37 +3290,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.0038181448147433</v>
+        <v>0.0494161627462719</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.325842696629214</v>
+        <v>0.314606741573034</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="K39">
-        <v>0.0005180851063829</v>
+        <v>0.000291908091908</v>
       </c>
       <c r="L39">
-        <v>0.0001892195011671</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>0.0008553864168618</v>
+        <v>0.000603220478943</v>
       </c>
       <c r="N39">
-        <v>2.07234042553191</v>
+        <v>1.21628371628372</v>
       </c>
       <c r="O39" t="s">
         <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1832392</v>
@@ -3326,19 +3329,19 @@
         <v>5505889</v>
       </c>
       <c r="S39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V39" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3358,37 +3361,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.221169211079778</v>
+        <v>0.591711196939039</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.859550561797753</v>
+        <v>0.853932584269663</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>2.075</v>
+        <v>2.035</v>
       </c>
       <c r="K40">
-        <v>0.01223804447152</v>
+        <v>-0.0083200455580865</v>
       </c>
       <c r="L40">
-        <v>-0.0192069897245144</v>
+        <v>-0.0356255673315878</v>
       </c>
       <c r="M40">
-        <v>0.057781136269054</v>
+        <v>0.0250894335436374</v>
       </c>
       <c r="N40">
-        <v>0.589785275735902</v>
+        <v>-0.408847447571821</v>
       </c>
       <c r="O40" t="s">
         <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q40">
         <v>1832392</v>
@@ -3397,19 +3400,19 @@
         <v>5505889</v>
       </c>
       <c r="S40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3426,16 +3429,16 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.01606541644429</v>
+        <v>0.01375582897744</v>
       </c>
       <c r="G41">
-        <v>0.0324324324324324</v>
+        <v>0.0309278350515464</v>
       </c>
       <c r="H41">
-        <v>0.405405405405405</v>
+        <v>0.391752577319588</v>
       </c>
       <c r="I41">
         <v>5</v>
@@ -3444,22 +3447,22 @@
         <v>1.6</v>
       </c>
       <c r="K41">
-        <v>-0.027124291577096</v>
+        <v>-0.0249658236500342</v>
       </c>
       <c r="L41">
-        <v>-0.0499316473000683</v>
+        <v>-0.0434705010295658</v>
       </c>
       <c r="M41">
-        <v>-0.0065706862298677</v>
+        <v>-0.006246501317311</v>
       </c>
       <c r="N41">
-        <v>-1.6952682235685</v>
+        <v>-1.56036397812714</v>
       </c>
       <c r="O41" t="s">
         <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="Q41">
         <v>1832392</v>
@@ -3468,19 +3471,19 @@
         <v>5505889</v>
       </c>
       <c r="S41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V41" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3488,49 +3491,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.997048135790509</v>
+        <v>0.011850256531664</v>
       </c>
       <c r="G42">
-        <v>0.210280373831776</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.0981308411214953</v>
+        <v>0.776119402985075</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.007</v>
+        <v>10.19</v>
       </c>
       <c r="K42">
-        <v>-8.9675914559293E-05</v>
+        <v>-0.0273316326530611</v>
       </c>
       <c r="L42">
-        <v>-0.0001968499027938</v>
+        <v>-0.0475036650729816</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>-0.008458275216339999</v>
       </c>
       <c r="N42">
-        <v>-1.28108449370419</v>
+        <v>-0.268220143798441</v>
       </c>
       <c r="O42" t="s">
         <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q42">
         <v>1832392</v>
@@ -3539,16 +3542,16 @@
         <v>5505889</v>
       </c>
       <c r="S42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W42" t="s">
         <v>65</v>
@@ -3559,7 +3562,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3571,37 +3574,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.634506455325861</v>
+        <v>0.99981910067637</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.221238938053097</v>
       </c>
       <c r="H43">
-        <v>0.738317757009346</v>
+        <v>0.0929203539823009</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>260</v>
+        <v>0.007</v>
       </c>
       <c r="K43">
-        <v>-1.01317614424411</v>
+        <v>-0.0001249786142001</v>
       </c>
       <c r="L43">
-        <v>-6.11619897491884</v>
+        <v>-0.0002174107142857</v>
       </c>
       <c r="M43">
-        <v>4.83420288308808</v>
+        <v>0</v>
       </c>
       <c r="N43">
-        <v>-0.389683132401579</v>
+        <v>-1.78540877428816</v>
       </c>
       <c r="O43" t="s">
         <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q43">
         <v>1832392</v>
@@ -3610,16 +3613,16 @@
         <v>5505889</v>
       </c>
       <c r="S43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W43" t="s">
         <v>66</v>
@@ -3630,7 +3633,7 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
@@ -3639,40 +3642,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.009374785522142401</v>
+        <v>0.8390476063929539</v>
       </c>
       <c r="G44">
-        <v>0.735576923076923</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>0.269230769230769</v>
+        <v>0.76</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>250</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-2.61360407066052</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-6.98343748150038</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1.90781123566055</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-1.04544162826421</v>
       </c>
       <c r="O44" t="s">
         <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q44">
         <v>1832392</v>
@@ -3681,19 +3684,19 @@
         <v>5505889</v>
       </c>
       <c r="S44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3701,49 +3704,49 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.998589837089663</v>
+        <v>0.037702871580955</v>
       </c>
       <c r="G45">
-        <v>0.0717948717948718</v>
+        <v>0.740909090909091</v>
       </c>
       <c r="H45">
-        <v>0.861538461538462</v>
+        <v>0.263636363636364</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>0.47</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
-        <v>-0.0082993898590364</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>-0.0136745639506381</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>-0.0030845833824825</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>-1.76582762958221</v>
+        <v>0</v>
       </c>
       <c r="O45" t="s">
         <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q45">
         <v>1832392</v>
@@ -3752,19 +3755,19 @@
         <v>5505889</v>
       </c>
       <c r="S45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3772,7 +3775,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3784,37 +3787,37 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.998020242292246</v>
+        <v>0.999986862034829</v>
       </c>
       <c r="G46">
-        <v>0.0186915887850467</v>
+        <v>0.072463768115942</v>
       </c>
       <c r="H46">
-        <v>0.892523364485981</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46">
-        <v>0.5014999999999999</v>
+        <v>0.453</v>
       </c>
       <c r="K46">
-        <v>-0.0059632653061224</v>
+        <v>-0.0106787720508525</v>
       </c>
       <c r="L46">
-        <v>-0.0108463046739481</v>
+        <v>-0.0152960241144369</v>
       </c>
       <c r="M46">
-        <v>-0.0024678590436571</v>
+        <v>-0.0064428270792562</v>
       </c>
       <c r="N46">
-        <v>-1.18908580381305</v>
+        <v>-2.35734482358774</v>
       </c>
       <c r="O46" t="s">
         <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q46">
         <v>1832392</v>
@@ -3823,19 +3826,19 @@
         <v>5505889</v>
       </c>
       <c r="S46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3843,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
@@ -3855,37 +3858,37 @@
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.0093349684893669</v>
+        <v>0.904325449314753</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.29064039408867</v>
+        <v>0.490384615384615</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.024</v>
+        <v>7.44</v>
       </c>
       <c r="K47">
-        <v>0.0003508645533141</v>
+        <v>0.0054997272204257</v>
       </c>
       <c r="L47">
-        <v>8.889793876231451E-05</v>
+        <v>-0.0014190408564187</v>
       </c>
       <c r="M47">
-        <v>0.0006211734693877</v>
+        <v>0.0123014243548238</v>
       </c>
       <c r="N47">
-        <v>1.46193563880884</v>
+        <v>0.0739210647906684</v>
       </c>
       <c r="O47" t="s">
         <v>44</v>
       </c>
       <c r="P47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q47">
         <v>1832392</v>
@@ -3894,19 +3897,16 @@
         <v>5505889</v>
       </c>
       <c r="S47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V47" t="s">
-        <v>61</v>
-      </c>
-      <c r="W47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3914,7 +3914,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>20</v>
@@ -3926,31 +3926,31 @@
         <v>40</v>
       </c>
       <c r="F48">
-        <v>0.122533056012604</v>
+        <v>0.9999776131889599</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0176991150442478</v>
       </c>
       <c r="H48">
-        <v>0.8224299065420561</v>
+        <v>0.898230088495575</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>2.05</v>
+        <v>0.475</v>
       </c>
       <c r="K48">
-        <v>0.0153205167173252</v>
+        <v>-0.008838992974238799</v>
       </c>
       <c r="L48">
-        <v>-0.0101828168382926</v>
+        <v>-0.01330042692397</v>
       </c>
       <c r="M48">
-        <v>0.0426165446071873</v>
+        <v>-0.0046110062227699</v>
       </c>
       <c r="N48">
-        <v>0.747342278893914</v>
+        <v>-1.86084062615555</v>
       </c>
       <c r="O48" t="s">
         <v>44</v>
@@ -3965,63 +3965,63 @@
         <v>5505889</v>
       </c>
       <c r="S48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.174041311816462</v>
+        <v>0.991391414148408</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.635514018691589</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.38</v>
+        <v>0.7445000000000001</v>
       </c>
       <c r="K49">
-        <v>-0.0056625576382929</v>
+        <v>-0.0061567635903919</v>
       </c>
       <c r="L49">
-        <v>-0.0219131311597837</v>
+        <v>-0.0115564410462605</v>
       </c>
       <c r="M49">
-        <v>0.0056575466364052</v>
+        <v>-0.0019930846191858</v>
       </c>
       <c r="N49">
-        <v>-1.49014674691918</v>
+        <v>-0.826966231080174</v>
       </c>
       <c r="O49" t="s">
         <v>44</v>
@@ -4036,27 +4036,30 @@
         <v>5505889</v>
       </c>
       <c r="S49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4065,37 +4068,37 @@
         <v>40</v>
       </c>
       <c r="F50">
-        <v>0.624085182977075</v>
+        <v>0.095451041703688</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.777777777777778</v>
+        <v>0.27906976744186</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>96</v>
+        <v>0.024</v>
       </c>
       <c r="K50">
-        <v>0.396280237118843</v>
+        <v>0.0001622972672739</v>
       </c>
       <c r="L50">
-        <v>-1.16056848036736</v>
+        <v>0</v>
       </c>
       <c r="M50">
-        <v>1.77232475097562</v>
+        <v>0.0003983046729293</v>
       </c>
       <c r="N50">
-        <v>0.412791913665462</v>
+        <v>0.676238613641414</v>
       </c>
       <c r="O50" t="s">
         <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="Q50">
         <v>1832392</v>
@@ -4104,66 +4107,69 @@
         <v>5505889</v>
       </c>
       <c r="S50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W50" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.377227088747045</v>
+        <v>0.379575315390164</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0.8141592920353981</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>3.99</v>
+        <v>2.01</v>
       </c>
       <c r="K51">
-        <v>-0.0111624021526418</v>
+        <v>0.0041570839874411</v>
       </c>
       <c r="L51">
-        <v>-0.159676454821773</v>
+        <v>-0.0200675366109454</v>
       </c>
       <c r="M51">
-        <v>0.06820235962604369</v>
+        <v>0.0253210496298299</v>
       </c>
       <c r="N51">
-        <v>-0.279759452447164</v>
+        <v>0.206820098877668</v>
       </c>
       <c r="O51" t="s">
         <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q51">
         <v>1832392</v>
@@ -4172,27 +4178,30 @@
         <v>5505889</v>
       </c>
       <c r="S51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>62</v>
+      </c>
+      <c r="W51" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4201,55 +4210,463 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.649862279686686</v>
+        <v>0.5</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.38</v>
+      </c>
+      <c r="K52">
+        <v>-0.000664695177434</v>
+      </c>
+      <c r="L52">
+        <v>-0.0057158160899123</v>
+      </c>
+      <c r="M52">
+        <v>0.0095872227812</v>
+      </c>
+      <c r="N52">
+        <v>-0.174919783535271</v>
+      </c>
+      <c r="O52" t="s">
+        <v>44</v>
+      </c>
+      <c r="P52" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q52">
+        <v>1832392</v>
+      </c>
+      <c r="R52">
+        <v>5505889</v>
+      </c>
+      <c r="S52" t="s">
+        <v>59</v>
+      </c>
+      <c r="T52" t="s">
+        <v>60</v>
+      </c>
+      <c r="U52" t="s">
+        <v>61</v>
+      </c>
+      <c r="V52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53">
+        <v>0.799160916765114</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>96</v>
+      </c>
+      <c r="K53">
+        <v>0.666061613385814</v>
+      </c>
+      <c r="L53">
+        <v>-0.674609500706434</v>
+      </c>
+      <c r="M53">
+        <v>1.77410436149287</v>
+      </c>
+      <c r="N53">
+        <v>0.693814180610223</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+      <c r="P53" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q53">
+        <v>1832392</v>
+      </c>
+      <c r="R53">
+        <v>5505889</v>
+      </c>
+      <c r="S53" t="s">
+        <v>59</v>
+      </c>
+      <c r="T53" t="s">
+        <v>60</v>
+      </c>
+      <c r="U53" t="s">
+        <v>61</v>
+      </c>
+      <c r="V53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F54">
+        <v>0.377227088747045</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>3.93</v>
+      </c>
+      <c r="K54">
+        <v>-0.0067684171902358</v>
+      </c>
+      <c r="L54">
+        <v>-0.0898378950940381</v>
+      </c>
+      <c r="M54">
+        <v>0.06820235962604369</v>
+      </c>
+      <c r="N54">
+        <v>-0.172224355985646</v>
+      </c>
+      <c r="O54" t="s">
+        <v>44</v>
+      </c>
+      <c r="P54" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q54">
+        <v>1832392</v>
+      </c>
+      <c r="R54">
+        <v>5505889</v>
+      </c>
+      <c r="S54" t="s">
+        <v>59</v>
+      </c>
+      <c r="T54" t="s">
+        <v>60</v>
+      </c>
+      <c r="U54" t="s">
+        <v>61</v>
+      </c>
+      <c r="V54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>0.60800977310881</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.372</v>
+      </c>
+      <c r="K55">
+        <v>0.0014617308654327</v>
+      </c>
+      <c r="L55">
+        <v>-0.005899597531902</v>
+      </c>
+      <c r="M55">
+        <v>0.0076999052755048</v>
+      </c>
+      <c r="N55">
+        <v>0.392938404686214</v>
+      </c>
+      <c r="O55" t="s">
+        <v>44</v>
+      </c>
+      <c r="P55" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q55">
+        <v>1832392</v>
+      </c>
+      <c r="R55">
+        <v>5505889</v>
+      </c>
+      <c r="S55" t="s">
+        <v>59</v>
+      </c>
+      <c r="T55" t="s">
+        <v>60</v>
+      </c>
+      <c r="U55" t="s">
+        <v>61</v>
+      </c>
+      <c r="V55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56">
+        <v>0.434480647378961</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>0.785714285714286</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>95.5</v>
-      </c>
-      <c r="K52">
-        <v>0.184190620272315</v>
-      </c>
-      <c r="L52">
-        <v>-0.5251247397691861</v>
-      </c>
-      <c r="M52">
-        <v>0.716243829259076</v>
-      </c>
-      <c r="N52">
-        <v>0.19286975944745</v>
-      </c>
-      <c r="O52" t="s">
-        <v>44</v>
-      </c>
-      <c r="P52" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q52">
-        <v>1832392</v>
-      </c>
-      <c r="R52">
-        <v>5505889</v>
-      </c>
-      <c r="S52" t="s">
-        <v>58</v>
-      </c>
-      <c r="T52" t="s">
-        <v>59</v>
-      </c>
-      <c r="U52" t="s">
-        <v>60</v>
-      </c>
-      <c r="V52" t="s">
-        <v>61</v>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>96.8</v>
+      </c>
+      <c r="K56">
+        <v>-0.0364989293361886</v>
+      </c>
+      <c r="L56">
+        <v>-0.643959911807735</v>
+      </c>
+      <c r="M56">
+        <v>0.484446734775577</v>
+      </c>
+      <c r="N56">
+        <v>-0.0377055055125915</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q56">
+        <v>1832392</v>
+      </c>
+      <c r="R56">
+        <v>5505889</v>
+      </c>
+      <c r="S56" t="s">
+        <v>59</v>
+      </c>
+      <c r="T56" t="s">
+        <v>60</v>
+      </c>
+      <c r="U56" t="s">
+        <v>61</v>
+      </c>
+      <c r="V56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.014269531785181</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.155</v>
+      </c>
+      <c r="K57">
+        <v>-0.0595897312859885</v>
+      </c>
+      <c r="L57">
+        <v>-0.105611430446025</v>
+      </c>
+      <c r="M57">
+        <v>-0.0178718047794387</v>
+      </c>
+      <c r="N57">
+        <v>-1.43416922469286</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57">
+        <v>1832392</v>
+      </c>
+      <c r="R57">
+        <v>5505889</v>
+      </c>
+      <c r="S57" t="s">
+        <v>59</v>
+      </c>
+      <c r="T57" t="s">
+        <v>60</v>
+      </c>
+      <c r="U57" t="s">
+        <v>61</v>
+      </c>
+      <c r="V57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58">
+        <v>0.43949857511017</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.722222222222222</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>96.8</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>-0.399951888001841</v>
+      </c>
+      <c r="M58">
+        <v>0.322939123754057</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q58">
+        <v>1832392</v>
+      </c>
+      <c r="R58">
+        <v>5505889</v>
+      </c>
+      <c r="S58" t="s">
+        <v>59</v>
+      </c>
+      <c r="T58" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="V58" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
